--- a/Data/EC/NIT-8000605300.xlsx
+++ b/Data/EC/NIT-8000605300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F65640-E596-449C-9FFE-75BC9323A852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51E8BF4-73DB-4E43-86C7-B90B628FBAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9FA42AB-22F7-4122-9403-B4981371D589}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F80436D-5261-439C-BB7F-4EFB033B95A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73581718</t>
+  </si>
+  <si>
+    <t>ARMANDO POMARES GUZMAN</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>1048933931</t>
   </si>
   <si>
@@ -72,15 +81,6 @@
   </si>
   <si>
     <t>1701</t>
-  </si>
-  <si>
-    <t>73581718</t>
-  </si>
-  <si>
-    <t>ARMANDO POMARES GUZMAN</t>
-  </si>
-  <si>
-    <t>1703</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -494,7 +494,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC11BAEB-CBD3-8A87-9771-8FA0E91920FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A40A40-9A13-268B-E165-D00FCD2F6FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117365B9-D2D4-4E83-B3C7-6BEE7BF3C4ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488E89F-96F6-44CD-94AE-20E8AFDD4DA6}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1023,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29280</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>732000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="24">
-        <v>29509</v>
+        <v>29280</v>
       </c>
       <c r="G17" s="24">
-        <v>737717</v>
+        <v>732000</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
